--- a/Chart/YNetwork/Normal/initPert/Data10I.xlsx
+++ b/Chart/YNetwork/Normal/initPert/Data10I.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>eta1</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>eta10</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>InitCondition</t>
+  </si>
+  <si>
+    <t>InitPower</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>PowerPert</t>
   </si>
 </sst>
 </file>
@@ -63,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -87,11 +108,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -109,6 +156,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,203 +191,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:U21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="8" customWidth="true"/>
+    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.85546875" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="5" customWidth="true"/>
+    <col min="13" max="13" width="15.28515625" customWidth="true"/>
+    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="17" max="17" width="13.7109375" customWidth="true"/>
+    <col min="19" max="19" width="2.85546875" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>-1.187102262763566e-15</v>
       </c>
-      <c r="F1">
-        <v>0.82144219412639186</v>
-      </c>
-      <c r="H1">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="J2">
+        <v>2.1789029308404864</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-5.5294310796760726e-16</v>
+      </c>
+      <c r="O2">
+        <v>-1.187102262763566e-15</v>
+      </c>
+      <c r="Q2">
+        <v>0.90882092788048807</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2.1789029308404864</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>1.8406841159786169e-15</v>
       </c>
-      <c r="F2">
-        <v>0.95634465750065867</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.1789029308404861</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.120614758428182</v>
+      </c>
+      <c r="O3">
+        <v>1.8406841159786169e-15</v>
+      </c>
+      <c r="Q3">
+        <v>0.15519206080367198</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1.1789029308404861</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="D4">
         <v>-1.2415376869169794e-15</v>
       </c>
-      <c r="F3">
-        <v>0.090166002168963533</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.1789029308404868</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1.1206147584281834</v>
+      </c>
+      <c r="O4">
+        <v>-1.2415376869169794e-15</v>
+      </c>
+      <c r="Q4">
+        <v>0.97945008126623767</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1.1789029308404868</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="D5">
         <v>4.2426406871192839</v>
       </c>
-      <c r="F4">
-        <v>0.19620491873125201</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.1789029308404841</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1.9999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>4.2426406871192839</v>
+      </c>
+      <c r="Q5">
+        <v>0.46637798245207041</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1.1789029308404841</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="D6">
         <v>1.5783478438894794e-15</v>
       </c>
-      <c r="F5">
-        <v>0.973704902674984</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>0.17890293084048522</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3.3472963553338602</v>
+      </c>
+      <c r="O6">
+        <v>1.5783478438894794e-15</v>
+      </c>
+      <c r="Q6">
+        <v>0.22761817776020821</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>0.17890293084048522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="D7">
         <v>1.6413372503920981e-15</v>
       </c>
-      <c r="F6">
-        <v>0.48403851681234178</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>0.17890293084048656</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3.3472963553338619</v>
+      </c>
+      <c r="O7">
+        <v>1.6413372503920981e-15</v>
+      </c>
+      <c r="Q7">
+        <v>0.23720287531730688</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>0.17890293084048656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="D8">
         <v>-1.8335585950312461e-16</v>
       </c>
-      <c r="F7">
-        <v>0.65316328109469035</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>0.17890293084048683</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4.5320888862379549</v>
+      </c>
+      <c r="O8">
+        <v>-1.8335585950312461e-16</v>
+      </c>
+      <c r="Q8">
+        <v>0.57033238449793755</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <v>0.17890293084048683</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="D9">
         <v>-1.4195463832946782e-15</v>
       </c>
-      <c r="F8">
-        <v>0.96199376691617278</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>0.17890293084048645</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>4.5320888862379567</v>
+      </c>
+      <c r="O9">
+        <v>-1.4195463832946782e-15</v>
+      </c>
+      <c r="Q9">
+        <v>0.64322662769575278</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>0.17890293084048645</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="D10">
         <v>-7.8576308048852865e-16</v>
       </c>
-      <c r="F9">
-        <v>0.31092271345360578</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>0.17890293084048381</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="O10">
+        <v>-7.8576308048852865e-16</v>
+      </c>
+      <c r="Q10">
+        <v>0.068265094050877217</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>0.17890293084048381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="D11">
         <v>-5.4408253053670171e-16</v>
       </c>
-      <c r="F10">
-        <v>0.78326593740403627</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
       <c r="F11">
-        <v>0.60315632043989653</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>0.17890293084048434</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="O11">
+        <v>-5.4408253053670171e-16</v>
+      </c>
+      <c r="Q11">
+        <v>0.18704983361382299</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>0.17890293084048434</v>
       </c>
     </row>
     <row r="12">
       <c r="F12">
-        <v>0.80540431700799764</v>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.71672587702894697</v>
       </c>
     </row>
     <row r="13">
       <c r="F13">
-        <v>0.059095312680080614</v>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.71896948797533455</v>
       </c>
     </row>
     <row r="14">
       <c r="F14">
-        <v>0.82905590877880064</v>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.65242692460297513</v>
       </c>
     </row>
     <row r="15">
       <c r="F15">
-        <v>0.92629426819795002</v>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.51042636095326965</v>
       </c>
     </row>
     <row r="16">
       <c r="F16">
-        <v>0.21240489628183401</v>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.20820851357519821</v>
       </c>
     </row>
     <row r="17">
       <c r="F17">
-        <v>0.34530786221516552</v>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.12184161005485372</v>
       </c>
     </row>
     <row r="18">
       <c r="F18">
-        <v>0.15184572231448457</v>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.073606130750602294</v>
       </c>
     </row>
     <row r="19">
       <c r="F19">
-        <v>0.28601827249938028</v>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.24576182202781005</v>
       </c>
     </row>
     <row r="20">
       <c r="F20">
-        <v>0.74719694413071303</v>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.98166560255987201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.14906418420329015</v>
       </c>
     </row>
   </sheetData>

--- a/Chart/YNetwork/Normal/initPert/Data10I.xlsx
+++ b/Chart/YNetwork/Normal/initPert/Data10I.xlsx
@@ -84,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -134,11 +134,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -182,6 +184,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,48 +199,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.28515625" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.85546875" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="5" customWidth="true"/>
     <col min="13" max="13" width="15.28515625" customWidth="true"/>
-    <col min="15" max="15" width="16.28515625" customWidth="true"/>
-    <col min="17" max="17" width="13.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="19" max="19" width="2.85546875" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -244,8 +248,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>-5.5294310796760726e-16</v>
+      </c>
       <c r="D2">
-        <v>-1.187102262763566e-15</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -254,33 +261,36 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>2.1789029308404864</v>
-      </c>
-      <c r="L2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="M2">
         <v>-5.5294310796760726e-16</v>
       </c>
       <c r="O2">
-        <v>-1.187102262763566e-15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.90882092788048807</v>
+        <v>0.56625312660898786</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="U2">
-        <v>2.1789029308404864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.120614758428182</v>
+      </c>
       <c r="D3">
-        <v>1.8406841159786169e-15</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -289,33 +299,36 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.1789029308404861</v>
-      </c>
-      <c r="L3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M3">
         <v>1.120614758428182</v>
       </c>
       <c r="O3">
-        <v>1.8406841159786169e-15</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.15519206080367198</v>
+        <v>0.92107522210222093</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1.1789029308404861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.1206147584281834</v>
+      </c>
       <c r="D4">
-        <v>-1.2415376869169794e-15</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -324,31 +337,34 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.1789029308404868</v>
-      </c>
-      <c r="L4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M4">
         <v>1.1206147584281834</v>
       </c>
       <c r="O4">
-        <v>-1.2415376869169794e-15</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.97945008126623767</v>
+        <v>0.786996488000829</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1.1789029308404868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.9999999999999993</v>
+      </c>
       <c r="D5">
         <v>4.2426406871192839</v>
       </c>
@@ -359,9 +375,9 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.1789029308404841</v>
-      </c>
-      <c r="L5" s="21" t="s">
+        <v>1.6149060419388173</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="M5">
@@ -371,21 +387,24 @@
         <v>4.2426406871192839</v>
       </c>
       <c r="Q5">
-        <v>0.46637798245207041</v>
+        <v>0.66525628587259478</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1.1789029308404841</v>
+        <v>1.6149060419388173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3.3472963553338602</v>
+      </c>
       <c r="D6">
-        <v>1.5783478438894794e-15</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -394,33 +413,36 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0.17890293084048522</v>
-      </c>
-      <c r="L6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="M6">
         <v>3.3472963553338602</v>
       </c>
       <c r="O6">
-        <v>1.5783478438894794e-15</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.22761817776020821</v>
+        <v>0.60617987614859803</v>
       </c>
       <c r="S6">
         <v>-1</v>
       </c>
       <c r="U6">
-        <v>0.17890293084048522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>3.3472963553338619</v>
+      </c>
       <c r="D7">
-        <v>1.6413372503920981e-15</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -429,33 +451,36 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>0.17890293084048656</v>
-      </c>
-      <c r="L7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="M7">
         <v>3.3472963553338619</v>
       </c>
       <c r="O7">
-        <v>1.6413372503920981e-15</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.23720287531730688</v>
+        <v>0.78348484032214571</v>
       </c>
       <c r="S7">
         <v>-1</v>
       </c>
       <c r="U7">
-        <v>0.17890293084048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>4.5320888862379549</v>
+      </c>
       <c r="D8">
-        <v>-1.8335585950312461e-16</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -464,33 +489,36 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>0.17890293084048683</v>
-      </c>
-      <c r="L8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M8">
         <v>4.5320888862379549</v>
       </c>
       <c r="O8">
-        <v>-1.8335585950312461e-16</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.57033238449793755</v>
+        <v>0.66227946721660957</v>
       </c>
       <c r="S8">
         <v>-1</v>
       </c>
       <c r="U8">
-        <v>0.17890293084048683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>4.5320888862379567</v>
+      </c>
       <c r="D9">
-        <v>-1.4195463832946782e-15</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -499,33 +527,36 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>0.17890293084048645</v>
-      </c>
-      <c r="L9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M9">
         <v>4.5320888862379567</v>
       </c>
       <c r="O9">
-        <v>-1.4195463832946782e-15</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.64322662769575278</v>
+        <v>0.63702279874292633</v>
       </c>
       <c r="S9">
         <v>-1</v>
       </c>
       <c r="U9">
-        <v>0.17890293084048645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>4.9999999999999991</v>
+      </c>
       <c r="D10">
-        <v>-7.8576308048852865e-16</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -534,33 +565,36 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>0.17890293084048381</v>
-      </c>
-      <c r="L10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M10">
         <v>4.9999999999999991</v>
       </c>
       <c r="O10">
-        <v>-7.8576308048852865e-16</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.068265094050877217</v>
+        <v>0.5247642643948951</v>
       </c>
       <c r="S10">
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>0.17890293084048381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>5.0000000000000009</v>
+      </c>
       <c r="D11">
-        <v>-5.4408253053670171e-16</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -569,25 +603,25 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>0.17890293084048434</v>
-      </c>
-      <c r="L11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="M11">
         <v>5.0000000000000009</v>
       </c>
       <c r="O11">
-        <v>-5.4408253053670171e-16</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.18704983361382299</v>
+        <v>0.25962343429120815</v>
       </c>
       <c r="S11">
         <v>-1</v>
       </c>
       <c r="U11">
-        <v>0.17890293084048434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -595,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.71672587702894697</v>
+        <v>0.75211265370953329</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.71896948797533455</v>
+        <v>0.26722909236708914</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.65242692460297513</v>
+        <v>0.39309859272450298</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.51042636095326965</v>
+        <v>0.65917606662186956</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.20820851357519821</v>
+        <v>0.25942744797745965</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.12184161005485372</v>
+        <v>0.24064588528793729</v>
       </c>
     </row>
     <row r="18">
@@ -643,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.073606130750602294</v>
+        <v>0.71603734283881082</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.24576182202781005</v>
+        <v>0.73214975873435217</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.98166560255987201</v>
+        <v>0.81671273589095494</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.14906418420329015</v>
+        <v>0.41732088362684594</v>
       </c>
     </row>
   </sheetData>
